--- a/dat_accuracy_M.xlsx
+++ b/dat_accuracy_M.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbkot\OneDrive - WageningenUR\Msc Biology WUR\Thesis\Final Report\Article Scientific Reports\Supplementary Analyses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b876cc13d5ca03e6/Documents/Wageningen University/Msc Biology WUR/Thesis/Final Report/Article Scientific Reports/Supplementary Analyses/V3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_CEA0B564C3A7C3C43AE84F431AED537125634B74" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1BE8E70A-8E4E-432D-9C1E-9D4AE27509AE}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{7FC2FF46-8168-4457-AA9F-0C50757DE6B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8AFFF02-1624-418A-B3D3-62EA746F5BAE}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="2910" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-6030" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Years" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>c</t>
   </si>
@@ -281,160 +281,7 @@
     <t>77</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>Bias</t>
+    <t>Mean Bias</t>
   </si>
   <si>
     <t>RMSE</t>
@@ -789,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F132" sqref="A131:F132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,22 +669,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>-40</v>
       </c>
       <c r="D2">
-        <v>0.67120498041351706</v>
+        <v>-7.5657563641568855</v>
       </c>
       <c r="E2">
-        <v>3.7281702109167107</v>
+        <v>5.8315752348499332</v>
       </c>
       <c r="F2">
-        <v>0.53842136896160175</v>
+        <v>-6.3166405056818578</v>
       </c>
       <c r="G2">
-        <v>3.7087089651500889</v>
+        <v>3.1155614112824472</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -845,22 +692,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>-35</v>
       </c>
       <c r="D3">
-        <v>-0.94991214653537115</v>
+        <v>-5.599796817340656</v>
       </c>
       <c r="E3">
-        <v>3.5032359286771486</v>
+        <v>2.9340845041287955</v>
       </c>
       <c r="F3">
-        <v>-0.89137331099649275</v>
+        <v>-5.4474473231655605</v>
       </c>
       <c r="G3">
-        <v>3.3899275398493294</v>
+        <v>2.746443582547315</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -868,22 +715,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>-30</v>
       </c>
       <c r="D4">
-        <v>-1.3389126510932379</v>
+        <v>-4.8661024620638669</v>
       </c>
       <c r="E4">
-        <v>2.9317649732827999</v>
+        <v>1.1708705717713648</v>
       </c>
       <c r="F4">
-        <v>-1.3918031561487876</v>
+        <v>-4.8992318311972349</v>
       </c>
       <c r="G4">
-        <v>2.8655416885877449</v>
+        <v>1.1837806689535373</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,22 +738,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>-25</v>
       </c>
       <c r="D5">
-        <v>-0.21200086354000525</v>
+        <v>-3.7923506642071856</v>
       </c>
       <c r="E5">
-        <v>2.73296565783399</v>
+        <v>1.8006306889252794</v>
       </c>
       <c r="F5">
-        <v>-0.39580790312601266</v>
+        <v>-3.8207989564406937</v>
       </c>
       <c r="G5">
-        <v>2.5400070849366485</v>
+        <v>1.8271818440300189</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -914,22 +761,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>-20</v>
       </c>
       <c r="D6">
-        <v>-1.5207483879818295</v>
+        <v>-3.8865664085514613</v>
       </c>
       <c r="E6">
-        <v>2.2954874924291193</v>
+        <v>0.76601282726562658</v>
       </c>
       <c r="F6">
-        <v>-1.763665237508909</v>
+        <v>-3.8781594355692035</v>
       </c>
       <c r="G6">
-        <v>2.1732367977398273</v>
+        <v>0.77312766655926879</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -937,22 +784,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>-15</v>
       </c>
       <c r="D7">
-        <v>-0.56867647829746137</v>
+        <v>-3.1304942459700098</v>
       </c>
       <c r="E7">
-        <v>0.89442594016981813</v>
+        <v>0.76632019251347616</v>
       </c>
       <c r="F7">
-        <v>-0.84692408237689798</v>
+        <v>-3.1272515425352578</v>
       </c>
       <c r="G7">
-        <v>0.85141314679369418</v>
+        <v>0.78489032152411409</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -960,22 +807,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>-10</v>
       </c>
       <c r="D8">
-        <v>-0.1169654285445199</v>
+        <v>-2.4894460712508755</v>
       </c>
       <c r="E8">
-        <v>1.6759040225627668</v>
+        <v>0.67314110514578407</v>
       </c>
       <c r="F8">
-        <v>-0.72446419847757948</v>
+        <v>-2.4464519507486076</v>
       </c>
       <c r="G8">
-        <v>1.4181471382777273</v>
+        <v>0.71186262509240439</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -983,22 +830,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>-40</v>
       </c>
       <c r="D9">
-        <v>-0.4584851991027577</v>
+        <v>-4.4927360130871206</v>
       </c>
       <c r="E9">
-        <v>0.99537692135269806</v>
+        <v>1.5862919051573532</v>
       </c>
       <c r="F9">
-        <v>-1.2033273051504092</v>
+        <v>-4.4817909820614314</v>
       </c>
       <c r="G9">
-        <v>0.86988483620243262</v>
+        <v>1.5970565422628968</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1006,22 +853,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>-40</v>
+        <v>-35</v>
       </c>
       <c r="D10">
-        <v>0.21883942291607866</v>
+        <v>-3.8757645150554003</v>
       </c>
       <c r="E10">
-        <v>3.5714945076742373</v>
+        <v>1.7781041196554959</v>
       </c>
       <c r="F10">
-        <v>-0.32875725765274372</v>
+        <v>-6.4201871235521049</v>
       </c>
       <c r="G10">
-        <v>2.7364474067899938</v>
+        <v>7.6682442369043455</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1029,22 +876,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>-35</v>
+        <v>-30</v>
       </c>
       <c r="D11">
-        <v>-2.0906276015926815</v>
+        <v>-4.1313344740360325</v>
       </c>
       <c r="E11">
-        <v>2.8047615836168767</v>
+        <v>1.4794407137477239</v>
       </c>
       <c r="F11">
-        <v>-2.2597431164058599</v>
+        <v>-4.1920656491799448</v>
       </c>
       <c r="G11">
-        <v>2.730392873527145</v>
+        <v>1.5036041694210556</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1052,22 +899,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>-30</v>
+        <v>-25</v>
       </c>
       <c r="D12">
-        <v>0.93272541335015013</v>
+        <v>-3.924598193190735</v>
       </c>
       <c r="E12">
-        <v>2.9964773878266802</v>
+        <v>1.0378029324640783</v>
       </c>
       <c r="F12">
-        <v>0.74927692838207161</v>
+        <v>-3.89554666682319</v>
       </c>
       <c r="G12">
-        <v>2.9698606866865185</v>
+        <v>1.0574549555314878</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1075,22 +922,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="D13">
-        <v>0.10598588084112856</v>
+        <v>-3.5636179323691999</v>
       </c>
       <c r="E13">
-        <v>2.5884084591161676</v>
+        <v>0.61971658384756767</v>
       </c>
       <c r="F13">
-        <v>-4.4361778783070127E-2</v>
+        <v>-3.5477643135024963</v>
       </c>
       <c r="G13">
-        <v>2.5395635228521494</v>
+        <v>0.63608094035070306</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,22 +945,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="D14">
-        <v>-0.77329189805128751</v>
+        <v>-3.4713458726148758</v>
       </c>
       <c r="E14">
-        <v>1.3534973941928774</v>
+        <v>0.39423003252879479</v>
       </c>
       <c r="F14">
-        <v>-0.98032906716571644</v>
+        <v>-3.4132369442585886</v>
       </c>
       <c r="G14">
-        <v>1.2855588866347099</v>
+        <v>0.41905678370909644</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,22 +968,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="D15">
-        <v>-1.3771732919591435</v>
+        <v>-2.1492602998855204</v>
       </c>
       <c r="E15">
-        <v>1.6814397523410933</v>
+        <v>0.60152348594105531</v>
       </c>
       <c r="F15">
-        <v>-1.6157165418266857</v>
+        <v>-2.0125453908684863</v>
       </c>
       <c r="G15">
-        <v>1.5505534762216779</v>
+        <v>0.60431232224609877</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1144,22 +991,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="D16">
-        <v>0.26154561044265057</v>
+        <v>-4.397650542124155</v>
       </c>
       <c r="E16">
-        <v>1.2232626915168592</v>
+        <v>2.5971926496193034</v>
       </c>
       <c r="F16">
-        <v>-0.53720635840724495</v>
+        <v>-4.4330414738941419</v>
       </c>
       <c r="G16">
-        <v>0.90135890601297397</v>
+        <v>2.6235713496863227</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1167,22 +1014,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>-5</v>
+        <v>-35</v>
       </c>
       <c r="D17">
-        <v>-0.11610662676924059</v>
+        <v>-2.7338346599779126</v>
       </c>
       <c r="E17">
-        <v>1.1775189822646361</v>
+        <v>1.2461896015470209</v>
       </c>
       <c r="F17">
-        <v>-1.2999334633048032</v>
+        <v>-2.7322861133430747</v>
       </c>
       <c r="G17">
-        <v>0.89315981021873536</v>
+        <v>1.2616619929097845</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1190,22 +1037,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="D18">
-        <v>0.31213323415929983</v>
+        <v>-3.2584152917948188</v>
       </c>
       <c r="E18">
-        <v>3.8198197602190462</v>
+        <v>1.6922794775162326</v>
       </c>
       <c r="F18">
-        <v>-0.13155302484014691</v>
+        <v>-3.1812675957444378</v>
       </c>
       <c r="G18">
-        <v>3.8033235844007383</v>
+        <v>1.5855561038323203</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1213,22 +1060,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>-35</v>
+        <v>-25</v>
       </c>
       <c r="D19">
-        <v>-2.1668359974356433</v>
+        <v>-1.7326508241548488</v>
       </c>
       <c r="E19">
-        <v>3.2045556585315449</v>
+        <v>1.1649164291838561</v>
       </c>
       <c r="F19">
-        <v>-2.330118123930903</v>
+        <v>-1.6793211054627728</v>
       </c>
       <c r="G19">
-        <v>3.1391774721455534</v>
+        <v>1.1959895402613905</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1236,22 +1083,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="D20">
-        <v>1.1844803910920363</v>
+        <v>-2.5842163788120227</v>
       </c>
       <c r="E20">
-        <v>2.3828357697361002</v>
+        <v>0.80512772213731965</v>
       </c>
       <c r="F20">
-        <v>2.6373243441146776E-3</v>
+        <v>-2.5339032549861211</v>
       </c>
       <c r="G20">
-        <v>2.8015796317999127</v>
+        <v>0.82730600588026892</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1259,22 +1106,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>-25</v>
+        <v>-15</v>
       </c>
       <c r="D21">
-        <v>-0.73148794031076003</v>
+        <v>-2.9237009098868438</v>
       </c>
       <c r="E21">
-        <v>2.1661127008260004</v>
+        <v>0.85214465517765814</v>
       </c>
       <c r="F21">
-        <v>-1.9906323558125694</v>
+        <v>-2.8398301320870485</v>
       </c>
       <c r="G21">
-        <v>2.849592163677054</v>
+        <v>0.86913571884276941</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1282,22 +1129,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="D22">
-        <v>0.29979804783120867</v>
+        <v>-2.6502901530128731</v>
       </c>
       <c r="E22">
-        <v>1.8096131702980822</v>
+        <v>0.6727790121878009</v>
       </c>
       <c r="F22">
-        <v>-0.11214169104238439</v>
+        <v>-2.4985065050739914</v>
       </c>
       <c r="G22">
-        <v>1.5840612607540863</v>
+        <v>0.71226665624523899</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1305,22 +1152,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>-15</v>
+        <v>-40</v>
       </c>
       <c r="D23">
-        <v>8.1828994537372246E-2</v>
+        <v>-3.8461515317903268</v>
       </c>
       <c r="E23">
-        <v>1.5521793333133864</v>
+        <v>1.9687519321319604</v>
       </c>
       <c r="F23">
-        <v>-0.63236602813171705</v>
+        <v>-3.8357615647115852</v>
       </c>
       <c r="G23">
-        <v>1.515188575358867</v>
+        <v>1.973539145484495</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1328,22 +1175,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>-10</v>
+        <v>-35</v>
       </c>
       <c r="D24">
-        <v>0.41052537406823991</v>
+        <v>-1.7441565090596656</v>
       </c>
       <c r="E24">
-        <v>1.1088170977663998</v>
+        <v>0.85042127812020152</v>
       </c>
       <c r="F24">
-        <v>-0.4537507679242706</v>
+        <v>-1.7177074715137874</v>
       </c>
       <c r="G24">
-        <v>1.3794603757054453</v>
+        <v>0.867700160786949</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1351,22 +1198,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>-5</v>
+        <v>-30</v>
       </c>
       <c r="D25">
-        <v>0.661801654449096</v>
+        <v>-3.4965789170209294</v>
       </c>
       <c r="E25">
-        <v>1.2683815050611531</v>
+        <v>1.1750529601725646</v>
       </c>
       <c r="F25">
-        <v>-0.85097145954884501</v>
+        <v>-3.4592089568715489</v>
       </c>
       <c r="G25">
-        <v>1.0907470868301072</v>
+        <v>1.188571656812788</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1374,22 +1221,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>-40</v>
+        <v>-25</v>
       </c>
       <c r="D26">
-        <v>0.64485502607099365</v>
+        <v>-2.4057083636080452</v>
       </c>
       <c r="E26">
-        <v>2.7345068790067617</v>
+        <v>1.0696496458016358</v>
       </c>
       <c r="F26">
-        <v>0.3586620444520226</v>
+        <v>-2.3338283626851681</v>
       </c>
       <c r="G26">
-        <v>2.7505630780869099</v>
+        <v>1.0891486547005949</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1397,22 +1244,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>-35</v>
+        <v>-20</v>
       </c>
       <c r="D27">
-        <v>0.66742864761874399</v>
+        <v>-2.5774756939607721</v>
       </c>
       <c r="E27">
-        <v>2.2289159201062323</v>
+        <v>0.62032374225689013</v>
       </c>
       <c r="F27">
-        <v>0.33339989011705862</v>
+        <v>-2.481938655364627</v>
       </c>
       <c r="G27">
-        <v>2.1314784891564433</v>
+        <v>0.62787207310167259</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1420,22 +1267,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>-30</v>
+        <v>-15</v>
       </c>
       <c r="D28">
-        <v>-1.5749665507151389</v>
+        <v>-2.1718207584635083</v>
       </c>
       <c r="E28">
-        <v>2.0496486255662565</v>
+        <v>0.75271774919490164</v>
       </c>
       <c r="F28">
-        <v>-1.7645168416749974</v>
+        <v>-2.0074011337350832</v>
       </c>
       <c r="G28">
-        <v>1.999746431735284</v>
+        <v>0.79716924864969596</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1443,22 +1290,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C29">
-        <v>-25</v>
+        <v>-10</v>
       </c>
       <c r="D29">
-        <v>-0.79210662268504706</v>
+        <v>-2.59097434486395</v>
       </c>
       <c r="E29">
-        <v>2.0348301127829242</v>
+        <v>0.62881650159607272</v>
       </c>
       <c r="F29">
-        <v>-1.3429887079874723</v>
+        <v>-2.3997000369262449</v>
       </c>
       <c r="G29">
-        <v>2.535731569698652</v>
+        <v>0.65557793381865037</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1466,22 +1313,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="D30">
-        <v>0.15688075856231326</v>
+        <v>-3.3708003518177807</v>
       </c>
       <c r="E30">
-        <v>1.7681433022979811</v>
+        <v>1.3733651037482866</v>
       </c>
       <c r="F30">
-        <v>-0.50504981136868554</v>
+        <v>-3.3506338946696084</v>
       </c>
       <c r="G30">
-        <v>1.7331157832661852</v>
+        <v>1.3887477266469701</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1489,22 +1336,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>-15</v>
+        <v>-35</v>
       </c>
       <c r="D31">
-        <v>-0.11770822233466074</v>
+        <v>-2.456305874290158</v>
       </c>
       <c r="E31">
-        <v>1.4593861661740801</v>
+        <v>1.2561468707366308</v>
       </c>
       <c r="F31">
-        <v>-0.68334344248950951</v>
+        <v>-2.4579507857057195</v>
       </c>
       <c r="G31">
-        <v>1.2205309322410527</v>
+        <v>1.2291666536175356</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1512,22 +1359,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="D32">
-        <v>-0.50661232185510008</v>
+        <v>-1.631269008806763</v>
       </c>
       <c r="E32">
-        <v>1.3481437220343022</v>
+        <v>0.96914396885767007</v>
       </c>
       <c r="F32">
-        <v>-1.6094477009077761</v>
+        <v>-1.5572184392531885</v>
       </c>
       <c r="G32">
-        <v>1.128909981943899</v>
+        <v>0.98015537996680979</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1535,22 +1382,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>-5</v>
+        <v>-25</v>
       </c>
       <c r="D33">
-        <v>-0.34011083274343185</v>
+        <v>-2.8283173342068317</v>
       </c>
       <c r="E33">
-        <v>1.0206330655055229</v>
+        <v>0.95687891073119158</v>
       </c>
       <c r="F33">
-        <v>-2.0228462872914785</v>
+        <v>-2.7219557079756034</v>
       </c>
       <c r="G33">
-        <v>1.171377260345817</v>
+        <v>0.98358760803917988</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1558,22 +1405,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="D34">
-        <v>-0.17837271933520213</v>
+        <v>-2.2704840300795284</v>
       </c>
       <c r="E34">
-        <v>1.9676923972704432</v>
+        <v>0.84837988297925948</v>
       </c>
       <c r="F34">
-        <v>-0.28964982915211274</v>
+        <v>-2.1096167953838099</v>
       </c>
       <c r="G34">
-        <v>2.0226923808236825</v>
+        <v>0.88119435707438387</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1581,22 +1428,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>-35</v>
+        <v>-15</v>
       </c>
       <c r="D35">
-        <v>0.39000876431067599</v>
+        <v>-2.3997407249280669</v>
       </c>
       <c r="E35">
-        <v>2.4610240603504425</v>
+        <v>0.64781974080738969</v>
       </c>
       <c r="F35">
-        <v>0.18226504036089688</v>
+        <v>-2.1751688088708283</v>
       </c>
       <c r="G35">
-        <v>2.345467986045187</v>
+        <v>0.69121281910065191</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1604,22 +1451,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>-30</v>
+        <v>-10</v>
       </c>
       <c r="D36">
-        <v>-1.5435245219773908E-2</v>
+        <v>-2.4269186430303917</v>
       </c>
       <c r="E36">
-        <v>3.2409148061822597</v>
+        <v>0.69021496222911416</v>
       </c>
       <c r="F36">
-        <v>-0.36340844258062582</v>
+        <v>-2.1561867435547937</v>
       </c>
       <c r="G36">
-        <v>3.309346556158451</v>
+        <v>0.70736804415973675</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1627,22 +1474,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37">
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="D37">
-        <v>0.74937607811278961</v>
+        <v>-1.8766365571615813</v>
       </c>
       <c r="E37">
-        <v>1.1888867181795448</v>
+        <v>1.5536175031913553</v>
       </c>
       <c r="F37">
-        <v>0.37578618171473205</v>
+        <v>-1.8407789335123794</v>
       </c>
       <c r="G37">
-        <v>1.0614333799307329</v>
+        <v>1.57591456943929</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1650,22 +1497,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C38">
-        <v>-20</v>
+        <v>-35</v>
       </c>
       <c r="D38">
-        <v>-0.44371648872038449</v>
+        <v>-2.4831270073557632</v>
       </c>
       <c r="E38">
-        <v>1.4503442045736152</v>
+        <v>0.8903278023042327</v>
       </c>
       <c r="F38">
-        <v>-1.079236699657613</v>
+        <v>-2.4549253058982172</v>
       </c>
       <c r="G38">
-        <v>1.2618854549595426</v>
+        <v>0.89782999050098566</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1673,22 +1520,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="D39">
-        <v>-0.56206765816494531</v>
+        <v>-2.3182002496362637</v>
       </c>
       <c r="E39">
-        <v>1.7631438034046087</v>
+        <v>0.72690559159010304</v>
       </c>
       <c r="F39">
-        <v>-1.7849096500999928</v>
+        <v>-2.2238703697524835</v>
       </c>
       <c r="G39">
-        <v>2.1878261570779491</v>
+        <v>0.73015936107500623</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1696,22 +1543,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C40">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="D40">
-        <v>-9.2306489052339027E-2</v>
+        <v>-2.5063260542350729</v>
       </c>
       <c r="E40">
-        <v>1.3052697029554103</v>
+        <v>0.52139226151820162</v>
       </c>
       <c r="F40">
-        <v>-1.4651472777149184</v>
+        <v>-2.3737181524106088</v>
       </c>
       <c r="G40">
-        <v>1.4116454252332</v>
+        <v>0.54672680195097978</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1719,22 +1566,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="D41">
-        <v>-0.57886504148159745</v>
+        <v>-2.1595489239649321</v>
       </c>
       <c r="E41">
-        <v>1.4580492969547747</v>
+        <v>0.57302150713438726</v>
       </c>
       <c r="F41">
-        <v>-2.2000890964617481</v>
+        <v>-1.963502683927637</v>
       </c>
       <c r="G41">
-        <v>1.1044324834233954</v>
+        <v>0.59639826842119215</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,22 +1589,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C42">
-        <v>-40</v>
+        <v>-15</v>
       </c>
       <c r="D42">
-        <v>-0.51135178368381007</v>
+        <v>-1.6487833759591264</v>
       </c>
       <c r="E42">
-        <v>3.330353980626434</v>
+        <v>0.6556338232313198</v>
       </c>
       <c r="F42">
-        <v>-0.73742526329159019</v>
+        <v>-1.3463584301436211</v>
       </c>
       <c r="G42">
-        <v>3.331157711766092</v>
+        <v>0.72060610657576207</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,22 +1612,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>-35</v>
+        <v>-10</v>
       </c>
       <c r="D43">
-        <v>0.16741134458096846</v>
+        <v>-2.2165823275833283</v>
       </c>
       <c r="E43">
-        <v>1.6287398487744338</v>
+        <v>0.6849126961917954</v>
       </c>
       <c r="F43">
-        <v>-0.71389798359886192</v>
+        <v>-1.8733489158317265</v>
       </c>
       <c r="G43">
-        <v>2.2945453775926921</v>
+        <v>0.69221428866476742</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1788,22 +1635,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C44">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="D44">
-        <v>0.21222976437307492</v>
+        <v>-1.6631420232684064</v>
       </c>
       <c r="E44">
-        <v>1.6082870331667827</v>
+        <v>1.409274734101835</v>
       </c>
       <c r="F44">
-        <v>-0.25228454187726274</v>
+        <v>-1.6011763936007877</v>
       </c>
       <c r="G44">
-        <v>1.7018481160996635</v>
+        <v>1.4195222924869915</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1811,22 +1658,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>-25</v>
+        <v>-35</v>
       </c>
       <c r="D45">
-        <v>-0.13352273899397621</v>
+        <v>-1.5801130145797979</v>
       </c>
       <c r="E45">
-        <v>1.6220173422795823</v>
+        <v>0.6800010237395655</v>
       </c>
       <c r="F45">
-        <v>-0.66354347987818607</v>
+        <v>-1.5102780280993753</v>
       </c>
       <c r="G45">
-        <v>1.6785526373847972</v>
+        <v>0.6960173353005833</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1834,22 +1681,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="D46">
-        <v>7.8948030103014238E-2</v>
+        <v>-2.5318498920731334</v>
       </c>
       <c r="E46">
-        <v>0.87561727527785216</v>
+        <v>0.89008217390962951</v>
       </c>
       <c r="F46">
-        <v>-0.78150773182087341</v>
+        <v>-2.4216898905142807</v>
       </c>
       <c r="G46">
-        <v>1.0299769055115349</v>
+        <v>0.89175801958025613</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1857,22 +1704,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C47">
-        <v>-15</v>
+        <v>-25</v>
       </c>
       <c r="D47">
-        <v>0.28370134457092699</v>
+        <v>-2.4105339770496501</v>
       </c>
       <c r="E47">
-        <v>1.1919432385113378</v>
+        <v>0.70628235524005134</v>
       </c>
       <c r="F47">
-        <v>-0.73677237151401109</v>
+        <v>-2.2607840176307503</v>
       </c>
       <c r="G47">
-        <v>1.1350802639314364</v>
+        <v>0.72258454325806376</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1880,22 +1727,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C48">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="D48">
-        <v>-0.26233115167449383</v>
+        <v>-2.2364292467564102</v>
       </c>
       <c r="E48">
-        <v>1.3880533816239926</v>
+        <v>0.58676497787975324</v>
       </c>
       <c r="F48">
-        <v>-1.6832727977620678</v>
+        <v>-2.0049861344956259</v>
       </c>
       <c r="G48">
-        <v>1.6847139124844883</v>
+        <v>0.59789998726579563</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1903,22 +1750,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="D49">
-        <v>0.19492747190778043</v>
+        <v>-1.6960118443540919</v>
       </c>
       <c r="E49">
-        <v>0.50459757923515003</v>
+        <v>0.65637068931179343</v>
       </c>
       <c r="F49">
-        <v>-1.5727099664069715</v>
+        <v>-1.3406011823109154</v>
       </c>
       <c r="G49">
-        <v>0.74605665518473652</v>
+        <v>0.70220710437464084</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1926,22 +1773,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="D50">
-        <v>-0.27241142575543648</v>
+        <v>-1.9561534893280901</v>
       </c>
       <c r="E50">
-        <v>4.6993429193473544</v>
+        <v>0.60349186718284809</v>
       </c>
       <c r="F50">
-        <v>-0.45712298590239381</v>
+        <v>-1.4862156425699624</v>
       </c>
       <c r="G50">
-        <v>4.7076526516389086</v>
+        <v>0.73073027783768651</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1949,22 +1796,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="D51">
-        <v>-0.19935277330577428</v>
+        <v>-1.3500131821689954</v>
       </c>
       <c r="E51">
-        <v>2.3508168996467855</v>
+        <v>1.5044566473269836</v>
       </c>
       <c r="F51">
-        <v>-0.46215659551627164</v>
+        <v>-1.2832705206340471</v>
       </c>
       <c r="G51">
-        <v>2.2978668134143136</v>
+        <v>1.5139243845000385</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1972,22 +1819,22 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C52">
-        <v>-30</v>
+        <v>-35</v>
       </c>
       <c r="D52">
-        <v>-0.13038324141273766</v>
+        <v>-1.7873306219013969</v>
       </c>
       <c r="E52">
-        <v>1.6445198534415566</v>
+        <v>0.66923519914400387</v>
       </c>
       <c r="F52">
-        <v>-1.9409100687403724</v>
+        <v>-1.6918402450929646</v>
       </c>
       <c r="G52">
-        <v>2.6103340949152076</v>
+        <v>0.65447405530617397</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1995,22 +1842,22 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>-25</v>
+        <v>-30</v>
       </c>
       <c r="D53">
-        <v>0.18487678982472974</v>
+        <v>-1.3194655014088408</v>
       </c>
       <c r="E53">
-        <v>1.1276890757935389</v>
+        <v>0.67148967718080244</v>
       </c>
       <c r="F53">
-        <v>-0.39895488877055085</v>
+        <v>-1.1643799821270704</v>
       </c>
       <c r="G53">
-        <v>1.1461976720592459</v>
+        <v>0.66240436607969921</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2018,22 +1865,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="D54">
-        <v>0.11423683239385465</v>
+        <v>-1.7701285566293254</v>
       </c>
       <c r="E54">
-        <v>1.0553561272367775</v>
+        <v>1.2104278192137845</v>
       </c>
       <c r="F54">
-        <v>-0.58484096192146429</v>
+        <v>-1.5636644977117458</v>
       </c>
       <c r="G54">
-        <v>1.0389054216825997</v>
+        <v>1.2762541309362194</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,22 +1888,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="D55">
-        <v>-0.62982181388375125</v>
+        <v>-1.6305380364382378</v>
       </c>
       <c r="E55">
-        <v>1.3039758177957381</v>
+        <v>0.639473048263419</v>
       </c>
       <c r="F55">
-        <v>-1.9479385609955622</v>
+        <v>-1.2792276844053665</v>
       </c>
       <c r="G55">
-        <v>1.5098064844267334</v>
+        <v>0.64993735652673867</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2064,22 +1911,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="D56">
-        <v>0.11762443764385874</v>
+        <v>-1.8436275057427778</v>
       </c>
       <c r="E56">
-        <v>1.1168806661374509</v>
+        <v>0.44675478878320235</v>
       </c>
       <c r="F56">
-        <v>-1.7380324882038951</v>
+        <v>-1.4024562642287342</v>
       </c>
       <c r="G56">
-        <v>1.0206822443495356</v>
+        <v>0.45326981474706746</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,22 +1934,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D57">
-        <v>-0.20331423363464846</v>
+        <v>-1.7756296407765553</v>
       </c>
       <c r="E57">
-        <v>0.77037304520788041</v>
+        <v>0.63220419957439411</v>
       </c>
       <c r="F57">
-        <v>-1.8242472642483492</v>
+        <v>-1.2042947813112614</v>
       </c>
       <c r="G57">
-        <v>1.301289949363106</v>
+        <v>0.68348648777055931</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,22 +1957,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C58">
         <v>-40</v>
       </c>
       <c r="D58">
-        <v>-1.1462460917857897</v>
+        <v>-0.6568103220302387</v>
       </c>
       <c r="E58">
-        <v>2.0540596375080344</v>
+        <v>0.95260026830273736</v>
       </c>
       <c r="F58">
-        <v>-1.4016935553880228</v>
+        <v>-0.56738044100958906</v>
       </c>
       <c r="G58">
-        <v>2.1477970164336999</v>
+        <v>0.96062246603484802</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,22 +1980,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C59">
         <v>-35</v>
       </c>
       <c r="D59">
-        <v>-0.29527492127716359</v>
+        <v>-1.2454680809583205</v>
       </c>
       <c r="E59">
-        <v>2.5405047745277183</v>
+        <v>0.64983095832156978</v>
       </c>
       <c r="F59">
-        <v>-1.7916208674671674</v>
+        <v>-1.1303330696082052</v>
       </c>
       <c r="G59">
-        <v>3.0837727002575699</v>
+        <v>0.64095965176774938</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2156,22 +2003,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C60">
         <v>-30</v>
       </c>
       <c r="D60">
-        <v>-0.13090281178479052</v>
+        <v>-1.3869920641835898</v>
       </c>
       <c r="E60">
-        <v>1.7210328978107134</v>
+        <v>1.0667615347071158</v>
       </c>
       <c r="F60">
-        <v>-0.66672210712312674</v>
+        <v>-1.2191773457833779</v>
       </c>
       <c r="G60">
-        <v>1.8316647130785426</v>
+        <v>1.0611171795358822</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2179,22 +2026,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C61">
         <v>-25</v>
       </c>
       <c r="D61">
-        <v>-3.0290579031781738E-2</v>
+        <v>-1.732723659337571</v>
       </c>
       <c r="E61">
-        <v>1.3513114691556543</v>
+        <v>0.57060850947800879</v>
       </c>
       <c r="F61">
-        <v>-0.78870485071113272</v>
+        <v>-1.458015453994975</v>
       </c>
       <c r="G61">
-        <v>1.2095989749740876</v>
+        <v>0.62365034737928937</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2202,22 +2049,22 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C62">
         <v>-20</v>
       </c>
       <c r="D62">
-        <v>0.44527116920769994</v>
+        <v>-1.3876548486266509</v>
       </c>
       <c r="E62">
-        <v>1.0707225165982004</v>
+        <v>0.26001791282035613</v>
       </c>
       <c r="F62">
-        <v>-0.56075845160751947</v>
+        <v>-1.0377822038397633</v>
       </c>
       <c r="G62">
-        <v>1.4803944526283026</v>
+        <v>0.25726906391380894</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,22 +2072,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>-15</v>
       </c>
       <c r="D63">
-        <v>0.29447780083546216</v>
+        <v>-1.5033322244615746</v>
       </c>
       <c r="E63">
-        <v>0.86661507560366791</v>
+        <v>0.5522059274774932</v>
       </c>
       <c r="F63">
-        <v>-0.98835109003036847</v>
+        <v>-0.94498283778306236</v>
       </c>
       <c r="G63">
-        <v>0.94669677573519651</v>
+        <v>0.62387372092873117</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2248,22 +2095,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C64">
         <v>-10</v>
       </c>
       <c r="D64">
-        <v>0.2192041647064972</v>
+        <v>-1.6792380545780123</v>
       </c>
       <c r="E64">
-        <v>0.66772526771136087</v>
+        <v>0.43379475511651655</v>
       </c>
       <c r="F64">
-        <v>-1.1769992178712012</v>
+        <v>-0.85435067816785681</v>
       </c>
       <c r="G64">
-        <v>0.82276026041063677</v>
+        <v>0.5285328706216974</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2271,22 +2118,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65">
-        <v>-5</v>
+        <v>-40</v>
       </c>
       <c r="D65">
-        <v>-3.3754395859020292E-2</v>
+        <v>-1.0179973257738189</v>
       </c>
       <c r="E65">
-        <v>1.088752565755186</v>
+        <v>1.2519254114909466</v>
       </c>
       <c r="F65">
-        <v>-1.6797468697992179</v>
+        <v>-0.94906952819205781</v>
       </c>
       <c r="G65">
-        <v>1.4746168085990488</v>
+        <v>1.223253596005369</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2294,22 +2141,22 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C66">
-        <v>-40</v>
+        <v>-35</v>
       </c>
       <c r="D66">
-        <v>0.17664348966724114</v>
+        <v>-1.2094144422250281</v>
       </c>
       <c r="E66">
-        <v>1.5948601157570392</v>
+        <v>0.94720622565966672</v>
       </c>
       <c r="F66">
-        <v>-9.4056080289677796E-2</v>
+        <v>-1.0540050770015292</v>
       </c>
       <c r="G66">
-        <v>1.6203056551497022</v>
+        <v>0.95453211999696796</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2317,22 +2164,22 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C67">
-        <v>-35</v>
+        <v>-30</v>
       </c>
       <c r="D67">
-        <v>0.30783721337807818</v>
+        <v>-1.2954970506915386</v>
       </c>
       <c r="E67">
-        <v>0.44017487135623334</v>
+        <v>0.9040902405686686</v>
       </c>
       <c r="F67">
-        <v>-3.0577822523323643</v>
+        <v>-1.0907222725168135</v>
       </c>
       <c r="G67">
-        <v>8.8592238697250636</v>
+        <v>0.91292847568079716</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2340,22 +2187,22 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C68">
-        <v>-30</v>
+        <v>-25</v>
       </c>
       <c r="D68">
-        <v>0.33062228029245111</v>
+        <v>-1.384998072802784</v>
       </c>
       <c r="E68">
-        <v>1.5616933737504302</v>
+        <v>0.54524202465006288</v>
       </c>
       <c r="F68">
-        <v>-0.11249794948702849</v>
+        <v>-1.0197334022134095</v>
       </c>
       <c r="G68">
-        <v>1.5578964610470269</v>
+        <v>0.59873451906464081</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2363,22 +2210,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C69">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="D69">
-        <v>-1.0725763841364304</v>
+        <v>-1.7523066876342903</v>
       </c>
       <c r="E69">
-        <v>1.2735875906176717</v>
+        <v>0.73335924966443011</v>
       </c>
       <c r="F69">
-        <v>-1.8017171705932273</v>
+        <v>-1.3070092867449641</v>
       </c>
       <c r="G69">
-        <v>1.3748633307561482</v>
+        <v>0.68536146985613289</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2386,22 +2233,22 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C70">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="D70">
-        <v>-0.18999521787462631</v>
+        <v>-1.2256003245012024</v>
       </c>
       <c r="E70">
-        <v>1.0902973253940349</v>
+        <v>0.4347691934681932</v>
       </c>
       <c r="F70">
-        <v>-1.1653702934420269</v>
+        <v>-0.57372961248466203</v>
       </c>
       <c r="G70">
-        <v>1.2265775654429696</v>
+        <v>0.38204042449364939</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2409,22 +2256,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C71">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="D71">
-        <v>-1.7705003410155663E-2</v>
+        <v>-1.6397288835168391</v>
       </c>
       <c r="E71">
-        <v>0.75577057335253273</v>
+        <v>0.43860032647345853</v>
       </c>
       <c r="F71">
-        <v>-1.0960564862442408</v>
+        <v>-0.93080733334883514</v>
       </c>
       <c r="G71">
-        <v>1.0523201522627192</v>
+        <v>0.51901264494915555</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,22 +2279,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C72">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="D72">
-        <v>0.20984262990954167</v>
+        <v>-0.85860004949394875</v>
       </c>
       <c r="E72">
-        <v>1.1117365539809572</v>
+        <v>0.60168896636795133</v>
       </c>
       <c r="F72">
-        <v>-1.0809929720190468</v>
+        <v>-0.78375193593527093</v>
       </c>
       <c r="G72">
-        <v>1.2792920347237404</v>
+        <v>0.58028018941610648</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2455,22 +2302,22 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C73">
-        <v>-5</v>
+        <v>-35</v>
       </c>
       <c r="D73">
-        <v>-9.7935157738750084E-2</v>
+        <v>-1.0466112570621566</v>
       </c>
       <c r="E73">
-        <v>0.40802080719457529</v>
+        <v>1.0430976644611887</v>
       </c>
       <c r="F73">
-        <v>-1.4172199805987775</v>
+        <v>-0.92354622263514197</v>
       </c>
       <c r="G73">
-        <v>0.84371842519189233</v>
+        <v>1.0346088555106301</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2478,22 +2325,22 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C74">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="D74">
-        <v>0.11312101277355087</v>
+        <v>-1.1606561241088891</v>
       </c>
       <c r="E74">
-        <v>2.1672179216761522</v>
+        <v>0.80696580209536428</v>
       </c>
       <c r="F74">
-        <v>-0.18154191345679305</v>
+        <v>-0.91988704743564931</v>
       </c>
       <c r="G74">
-        <v>2.311548683182854</v>
+        <v>0.8430631382842243</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2501,22 +2348,22 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C75">
-        <v>-35</v>
+        <v>-25</v>
       </c>
       <c r="D75">
-        <v>-9.3030437028275514E-2</v>
+        <v>-1.0240345158400319</v>
       </c>
       <c r="E75">
-        <v>1.6478324092682402</v>
+        <v>0.69556538578165517</v>
       </c>
       <c r="F75">
-        <v>-0.46085763455424067</v>
+        <v>-0.6179444740674761</v>
       </c>
       <c r="G75">
-        <v>1.8114581078105465</v>
+        <v>0.66592028739169729</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2524,22 +2371,22 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C76">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="D76">
-        <v>-0.38454632964647112</v>
+        <v>-1.1654525789886412</v>
       </c>
       <c r="E76">
-        <v>1.5331219023121163</v>
+        <v>0.81905748164333347</v>
       </c>
       <c r="F76">
-        <v>-0.83364617535269336</v>
+        <v>-0.57824304438839103</v>
       </c>
       <c r="G76">
-        <v>1.7469467265563379</v>
+        <v>0.98586784993240928</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2547,22 +2394,22 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C77">
-        <v>-25</v>
+        <v>-15</v>
       </c>
       <c r="D77">
-        <v>0.38261250622827525</v>
+        <v>-1.5708478528602121</v>
       </c>
       <c r="E77">
-        <v>1.0916661987530611</v>
+        <v>0.55321734255759447</v>
       </c>
       <c r="F77">
-        <v>-0.93062566703515126</v>
+        <v>-0.8540048837986467</v>
       </c>
       <c r="G77">
-        <v>2.6276894113881597</v>
+        <v>0.78033088624418367</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2570,1221 +2417,48 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C78">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="D78">
-        <v>-0.69689019411782005</v>
+        <v>-1.374970309164683</v>
       </c>
       <c r="E78">
-        <v>0.7657061790887556</v>
+        <v>0.61338879963914639</v>
       </c>
       <c r="F78">
-        <v>-1.8019396536629315</v>
+        <v>-0.63197546817764627</v>
       </c>
       <c r="G78">
-        <v>0.89636939213213251</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79">
-        <v>14</v>
-      </c>
-      <c r="C79">
-        <v>-15</v>
-      </c>
-      <c r="D79">
-        <v>-3.9432543225576211E-2</v>
-      </c>
-      <c r="E79">
-        <v>0.94571380896298918</v>
-      </c>
-      <c r="F79">
-        <v>-1.0187770987645823</v>
-      </c>
-      <c r="G79">
-        <v>1.2218538466040765</v>
+        <v>0.5197833326800938</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80">
+        <f>SUM(D2:D78)/COUNT(D2:D78)</f>
+        <v>-2.3573472329439205</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ref="F80" si="0">SUM(F2:F78)/COUNT(F2:F78)</f>
+        <v>-2.1857061276459064</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="B80">
-        <v>14</v>
-      </c>
-      <c r="C80">
-        <v>-10</v>
-      </c>
-      <c r="D80">
-        <v>5.0904967414088273E-2</v>
-      </c>
-      <c r="E80">
-        <v>0.87901035835082686</v>
-      </c>
-      <c r="F80">
-        <v>-1.1808018927931383</v>
-      </c>
-      <c r="G80">
-        <v>1.1180272661194897</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81">
-        <v>14</v>
-      </c>
-      <c r="C81">
-        <v>-5</v>
-      </c>
       <c r="D81">
-        <v>8.84351223298772E-2</v>
-      </c>
-      <c r="E81">
-        <v>0.66469354942120518</v>
+        <f>SQRT((SUM(D2:D78)^2)/COUNT(D2:D78))</f>
+        <v>20.685638017800265</v>
       </c>
       <c r="F81">
-        <v>-0.91082795461822808</v>
-      </c>
-      <c r="G81">
-        <v>1.2393357927245914</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82">
-        <v>15</v>
-      </c>
-      <c r="C82">
-        <v>-40</v>
-      </c>
-      <c r="D82">
-        <v>0.81373187205243058</v>
-      </c>
-      <c r="E82">
-        <v>2.1999579015323252</v>
-      </c>
-      <c r="F82">
-        <v>0.60559312616583649</v>
-      </c>
-      <c r="G82">
-        <v>2.4660612065402501</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83">
-        <v>15</v>
-      </c>
-      <c r="C83">
-        <v>-35</v>
-      </c>
-      <c r="D83">
-        <v>0.32379417406150957</v>
-      </c>
-      <c r="E83">
-        <v>0.80261644223123341</v>
-      </c>
-      <c r="F83">
-        <v>-4.9150495074309394E-2</v>
-      </c>
-      <c r="G83">
-        <v>0.95664478798291974</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84">
-        <v>15</v>
-      </c>
-      <c r="C84">
-        <v>-30</v>
-      </c>
-      <c r="D84">
-        <v>0.27662219567317603</v>
-      </c>
-      <c r="E84">
-        <v>1.2385479525162952</v>
-      </c>
-      <c r="F84">
-        <v>-6.2082165210495255E-2</v>
-      </c>
-      <c r="G84">
-        <v>1.4067089496885721</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85">
-        <v>15</v>
-      </c>
-      <c r="C85">
-        <v>-25</v>
-      </c>
-      <c r="D85">
-        <v>-0.19450027136980044</v>
-      </c>
-      <c r="E85">
-        <v>1.2857158045645305</v>
-      </c>
-      <c r="F85">
-        <v>-0.63214476751540494</v>
-      </c>
-      <c r="G85">
-        <v>1.5506235793597556</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86">
-        <v>15</v>
-      </c>
-      <c r="C86">
-        <v>-20</v>
-      </c>
-      <c r="D86">
-        <v>2.0786988926460203E-2</v>
-      </c>
-      <c r="E86">
-        <v>0.78243364729213183</v>
-      </c>
-      <c r="F86">
-        <v>-0.99062467803110521</v>
-      </c>
-      <c r="G86">
-        <v>1.0003645125967484</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87">
-        <v>15</v>
-      </c>
-      <c r="C87">
-        <v>-15</v>
-      </c>
-      <c r="D87">
-        <v>-0.28206114668594823</v>
-      </c>
-      <c r="E87">
-        <v>0.61571538068818799</v>
-      </c>
-      <c r="F87">
-        <v>-1.2007671611329163</v>
-      </c>
-      <c r="G87">
-        <v>0.97082433160466275</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88">
-        <v>15</v>
-      </c>
-      <c r="C88">
-        <v>-10</v>
-      </c>
-      <c r="D88">
-        <v>-0.22688955254203691</v>
-      </c>
-      <c r="E88">
-        <v>0.66368964746993764</v>
-      </c>
-      <c r="F88">
-        <v>-0.83887994592388948</v>
-      </c>
-      <c r="G88">
-        <v>1.0769218655208723</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89">
-        <v>15</v>
-      </c>
-      <c r="C89">
-        <v>-5</v>
-      </c>
-      <c r="D89">
-        <v>0.38473978154938193</v>
-      </c>
-      <c r="E89">
-        <v>0.63216108685014627</v>
-      </c>
-      <c r="F89">
-        <v>0.48919827788876286</v>
-      </c>
-      <c r="G89">
-        <v>0.64196901474969825</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90">
-        <v>16</v>
-      </c>
-      <c r="C90">
-        <v>-40</v>
-      </c>
-      <c r="D90">
-        <v>3.1028462629600996E-2</v>
-      </c>
-      <c r="E90">
-        <v>1.2500357222716885</v>
-      </c>
-      <c r="F90">
-        <v>-0.14573434101035171</v>
-      </c>
-      <c r="G90">
-        <v>1.3075211372084112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91">
-        <v>16</v>
-      </c>
-      <c r="C91">
-        <v>-35</v>
-      </c>
-      <c r="D91">
-        <v>-0.11025350322445053</v>
-      </c>
-      <c r="E91">
-        <v>1.2848479329985574</v>
-      </c>
-      <c r="F91">
-        <v>-0.46373296407788234</v>
-      </c>
-      <c r="G91">
-        <v>1.5639058281430962</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92">
-        <v>16</v>
-      </c>
-      <c r="C92">
-        <v>-30</v>
-      </c>
-      <c r="D92">
-        <v>0.98902178393570161</v>
-      </c>
-      <c r="E92">
-        <v>1.1259504204395092</v>
-      </c>
-      <c r="F92">
-        <v>0.88420019313849152</v>
-      </c>
-      <c r="G92">
-        <v>1.3701004625997877</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93">
-        <v>16</v>
-      </c>
-      <c r="C93">
-        <v>-25</v>
-      </c>
-      <c r="D93">
-        <v>0.13527516491249933</v>
-      </c>
-      <c r="E93">
-        <v>1.0041928945152172</v>
-      </c>
-      <c r="F93">
-        <v>-0.23212249969047641</v>
-      </c>
-      <c r="G93">
-        <v>1.2571261227859454</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94">
-        <v>16</v>
-      </c>
-      <c r="C94">
-        <v>-20</v>
-      </c>
-      <c r="D94">
-        <v>-0.10966359231996829</v>
-      </c>
-      <c r="E94">
-        <v>0.92128991878223709</v>
-      </c>
-      <c r="F94">
-        <v>-0.64184503467466114</v>
-      </c>
-      <c r="G94">
-        <v>1.2970570292614831</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95">
-        <v>16</v>
-      </c>
-      <c r="C95">
-        <v>-15</v>
-      </c>
-      <c r="D95">
-        <v>0.22788312384992082</v>
-      </c>
-      <c r="E95">
-        <v>0.76047548640549878</v>
-      </c>
-      <c r="F95">
-        <v>8.6497116026026971E-2</v>
-      </c>
-      <c r="G95">
-        <v>1.0855829581181096</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96">
-        <v>16</v>
-      </c>
-      <c r="C96">
-        <v>-10</v>
-      </c>
-      <c r="D96">
-        <v>-2.8900047849871057E-2</v>
-      </c>
-      <c r="E96">
-        <v>0.86845031806556849</v>
-      </c>
-      <c r="F96">
-        <v>-0.69886110903792653</v>
-      </c>
-      <c r="G96">
-        <v>2.2253620561677612</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>101</v>
-      </c>
-      <c r="B97">
-        <v>16</v>
-      </c>
-      <c r="C97">
-        <v>-5</v>
-      </c>
-      <c r="D97">
-        <v>-0.22166380962782845</v>
-      </c>
-      <c r="E97">
-        <v>0.71113965275299129</v>
-      </c>
-      <c r="F97">
-        <v>-0.32390441535930847</v>
-      </c>
-      <c r="G97">
-        <v>0.89223722512484749</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>102</v>
-      </c>
-      <c r="B98">
-        <v>17</v>
-      </c>
-      <c r="C98">
-        <v>-40</v>
-      </c>
-      <c r="D98">
-        <v>-0.10069034387851108</v>
-      </c>
-      <c r="E98">
-        <v>1.2490634140584504</v>
-      </c>
-      <c r="F98">
-        <v>-0.15697064273748468</v>
-      </c>
-      <c r="G98">
-        <v>1.4473577314207409</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>103</v>
-      </c>
-      <c r="B99">
-        <v>17</v>
-      </c>
-      <c r="C99">
-        <v>-35</v>
-      </c>
-      <c r="D99">
-        <v>-0.48810400915241525</v>
-      </c>
-      <c r="E99">
-        <v>1.010269955146758</v>
-      </c>
-      <c r="F99">
-        <v>-0.67433327032506951</v>
-      </c>
-      <c r="G99">
-        <v>1.195296290461862</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>104</v>
-      </c>
-      <c r="B100">
-        <v>17</v>
-      </c>
-      <c r="C100">
-        <v>-30</v>
-      </c>
-      <c r="D100">
-        <v>8.8913847686435329E-2</v>
-      </c>
-      <c r="E100">
-        <v>1.1387209205959887</v>
-      </c>
-      <c r="F100">
-        <v>7.3489328958104491E-2</v>
-      </c>
-      <c r="G100">
-        <v>1.3500119894781306</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>105</v>
-      </c>
-      <c r="B101">
-        <v>17</v>
-      </c>
-      <c r="C101">
-        <v>-25</v>
-      </c>
-      <c r="D101">
-        <v>0.17540379870417092</v>
-      </c>
-      <c r="E101">
-        <v>0.81673451594089874</v>
-      </c>
-      <c r="F101">
-        <v>0.10223579588178602</v>
-      </c>
-      <c r="G101">
-        <v>1.1115292825535841</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>106</v>
-      </c>
-      <c r="B102">
-        <v>17</v>
-      </c>
-      <c r="C102">
-        <v>-20</v>
-      </c>
-      <c r="D102">
-        <v>-0.59876616175278818</v>
-      </c>
-      <c r="E102">
-        <v>0.61783062969454239</v>
-      </c>
-      <c r="F102">
-        <v>-0.97901155189362754</v>
-      </c>
-      <c r="G102">
-        <v>0.92316131073579899</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103">
-        <v>17</v>
-      </c>
-      <c r="C103">
-        <v>-15</v>
-      </c>
-      <c r="D103">
-        <v>1.9472463361402605E-2</v>
-      </c>
-      <c r="E103">
-        <v>0.65114534639019495</v>
-      </c>
-      <c r="F103">
-        <v>0.21057899225446447</v>
-      </c>
-      <c r="G103">
-        <v>0.79772635350493548</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>108</v>
-      </c>
-      <c r="B104">
-        <v>17</v>
-      </c>
-      <c r="C104">
-        <v>-10</v>
-      </c>
-      <c r="D104">
-        <v>0.15813035309595963</v>
-      </c>
-      <c r="E104">
-        <v>0.78671326087341886</v>
-      </c>
-      <c r="F104">
-        <v>0.49570734689261398</v>
-      </c>
-      <c r="G104">
-        <v>0.75911705451285594</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105">
-        <v>17</v>
-      </c>
-      <c r="C105">
-        <v>-5</v>
-      </c>
-      <c r="D105">
-        <v>3.0756078533300979E-2</v>
-      </c>
-      <c r="E105">
-        <v>0.60714173623642165</v>
-      </c>
-      <c r="F105">
-        <v>0.1915783809394748</v>
-      </c>
-      <c r="G105">
-        <v>0.9590084249266656</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>110</v>
-      </c>
-      <c r="B106">
-        <v>18</v>
-      </c>
-      <c r="C106">
-        <v>-40</v>
-      </c>
-      <c r="D106">
-        <v>-9.3950848269566484E-2</v>
-      </c>
-      <c r="E106">
-        <v>0.96530075220176481</v>
-      </c>
-      <c r="F106">
-        <v>-0.20427290528056333</v>
-      </c>
-      <c r="G106">
-        <v>1.2008081144957186</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>111</v>
-      </c>
-      <c r="B107">
-        <v>18</v>
-      </c>
-      <c r="C107">
-        <v>-35</v>
-      </c>
-      <c r="D107">
-        <v>-0.66842392233277048</v>
-      </c>
-      <c r="E107">
-        <v>0.94633571053030685</v>
-      </c>
-      <c r="F107">
-        <v>-0.68720326419425837</v>
-      </c>
-      <c r="G107">
-        <v>1.2025718483874797</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>112</v>
-      </c>
-      <c r="B108">
-        <v>18</v>
-      </c>
-      <c r="C108">
-        <v>-30</v>
-      </c>
-      <c r="D108">
-        <v>6.7947066543003129E-2</v>
-      </c>
-      <c r="E108">
-        <v>1.2459025214635859</v>
-      </c>
-      <c r="F108">
-        <v>0.27249167925335022</v>
-      </c>
-      <c r="G108">
-        <v>1.6079056914642085</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>113</v>
-      </c>
-      <c r="B109">
-        <v>18</v>
-      </c>
-      <c r="C109">
-        <v>-25</v>
-      </c>
-      <c r="D109">
-        <v>-4.9474040499211114E-2</v>
-      </c>
-      <c r="E109">
-        <v>0.50387305819258299</v>
-      </c>
-      <c r="F109">
-        <v>3.6610767717639804E-2</v>
-      </c>
-      <c r="G109">
-        <v>0.73042649894398448</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>114</v>
-      </c>
-      <c r="B110">
-        <v>18</v>
-      </c>
-      <c r="C110">
-        <v>-20</v>
-      </c>
-      <c r="D110">
-        <v>-0.21839118527518372</v>
-      </c>
-      <c r="E110">
-        <v>0.89621826177357078</v>
-      </c>
-      <c r="F110">
-        <v>-5.5894678693721292E-2</v>
-      </c>
-      <c r="G110">
-        <v>1.4040103924130825</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>115</v>
-      </c>
-      <c r="B111">
-        <v>18</v>
-      </c>
-      <c r="C111">
-        <v>-15</v>
-      </c>
-      <c r="D111">
-        <v>0.10009454410051433</v>
-      </c>
-      <c r="E111">
-        <v>0.93153512838493424</v>
-      </c>
-      <c r="F111">
-        <v>0.33311228026093431</v>
-      </c>
-      <c r="G111">
-        <v>1.0041804225397819</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>116</v>
-      </c>
-      <c r="B112">
-        <v>18</v>
-      </c>
-      <c r="C112">
-        <v>-10</v>
-      </c>
-      <c r="D112">
-        <v>-0.66728959384463804</v>
-      </c>
-      <c r="E112">
-        <v>1.1033171549476235</v>
-      </c>
-      <c r="F112">
-        <v>-0.69072152132378051</v>
-      </c>
-      <c r="G112">
-        <v>0.9658338322300305</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>117</v>
-      </c>
-      <c r="B113">
-        <v>18</v>
-      </c>
-      <c r="C113">
-        <v>-5</v>
-      </c>
-      <c r="D113">
-        <v>-0.30631656346065766</v>
-      </c>
-      <c r="E113">
-        <v>0.68134432384950927</v>
-      </c>
-      <c r="F113">
-        <v>-0.23078139326773198</v>
-      </c>
-      <c r="G113">
-        <v>1.0470427658794237</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>118</v>
-      </c>
-      <c r="B114">
-        <v>19</v>
-      </c>
-      <c r="C114">
-        <v>-40</v>
-      </c>
-      <c r="D114">
-        <v>0.57775343910509136</v>
-      </c>
-      <c r="E114">
-        <v>1.9394968170240383</v>
-      </c>
-      <c r="F114">
-        <v>0.87355001538006827</v>
-      </c>
-      <c r="G114">
-        <v>2.1675424962476018</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>119</v>
-      </c>
-      <c r="B115">
-        <v>19</v>
-      </c>
-      <c r="C115">
-        <v>-35</v>
-      </c>
-      <c r="D115">
-        <v>-0.42256189657313536</v>
-      </c>
-      <c r="E115">
-        <v>0.65361013466069839</v>
-      </c>
-      <c r="F115">
-        <v>-9.1386017829323762E-2</v>
-      </c>
-      <c r="G115">
-        <v>0.73495484228110841</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>120</v>
-      </c>
-      <c r="B116">
-        <v>19</v>
-      </c>
-      <c r="C116">
-        <v>-30</v>
-      </c>
-      <c r="D116">
-        <v>-0.36259086586869921</v>
-      </c>
-      <c r="E116">
-        <v>0.78431178206497576</v>
-      </c>
-      <c r="F116">
-        <v>-0.36783360189250924</v>
-      </c>
-      <c r="G116">
-        <v>1.4242858403425591</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>121</v>
-      </c>
-      <c r="B117">
-        <v>19</v>
-      </c>
-      <c r="C117">
-        <v>-25</v>
-      </c>
-      <c r="D117">
-        <v>0.51464635172624928</v>
-      </c>
-      <c r="E117">
-        <v>0.85986228128749476</v>
-      </c>
-      <c r="F117">
-        <v>1.2875151225527337</v>
-      </c>
-      <c r="G117">
-        <v>1.0054507976202636</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>122</v>
-      </c>
-      <c r="B118">
-        <v>19</v>
-      </c>
-      <c r="C118">
-        <v>-20</v>
-      </c>
-      <c r="D118">
-        <v>-0.25343648391729479</v>
-      </c>
-      <c r="E118">
-        <v>0.676637953981016</v>
-      </c>
-      <c r="F118">
-        <v>6.4783782199812026E-2</v>
-      </c>
-      <c r="G118">
-        <v>0.85877380126221503</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>123</v>
-      </c>
-      <c r="B119">
-        <v>19</v>
-      </c>
-      <c r="C119">
-        <v>-15</v>
-      </c>
-      <c r="D119">
-        <v>-0.269900348927262</v>
-      </c>
-      <c r="E119">
-        <v>1.0591016202605097</v>
-      </c>
-      <c r="F119">
-        <v>3.3283326392326985E-2</v>
-      </c>
-      <c r="G119">
-        <v>1.3061696169773178</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>124</v>
-      </c>
-      <c r="B120">
-        <v>19</v>
-      </c>
-      <c r="C120">
-        <v>-10</v>
-      </c>
-      <c r="D120">
-        <v>-0.11390493501504614</v>
-      </c>
-      <c r="E120">
-        <v>0.58718139513439027</v>
-      </c>
-      <c r="F120">
-        <v>-2.647403453250945E-2</v>
-      </c>
-      <c r="G120">
-        <v>0.90773480346952606</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>125</v>
-      </c>
-      <c r="B121">
-        <v>19</v>
-      </c>
-      <c r="C121">
-        <v>-5</v>
-      </c>
-      <c r="D121">
-        <v>-0.14188338809454493</v>
-      </c>
-      <c r="E121">
-        <v>0.56436082180465563</v>
-      </c>
-      <c r="F121">
-        <v>-0.22909395975991381</v>
-      </c>
-      <c r="G121">
-        <v>0.96166244094126341</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>126</v>
-      </c>
-      <c r="B122">
-        <v>20</v>
-      </c>
-      <c r="C122">
-        <v>-40</v>
-      </c>
-      <c r="D122">
-        <v>0.51572193077989648</v>
-      </c>
-      <c r="E122">
-        <v>1.4786807830395046</v>
-      </c>
-      <c r="F122">
-        <v>1.1987755154170983</v>
-      </c>
-      <c r="G122">
-        <v>1.8266910497527209</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>127</v>
-      </c>
-      <c r="B123">
-        <v>20</v>
-      </c>
-      <c r="C123">
-        <v>-35</v>
-      </c>
-      <c r="D123">
-        <v>-0.38713340381980393</v>
-      </c>
-      <c r="E123">
-        <v>1.5722646058759158</v>
-      </c>
-      <c r="F123">
-        <v>0.58933095703091498</v>
-      </c>
-      <c r="G123">
-        <v>2.0766852232472859</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>128</v>
-      </c>
-      <c r="B124">
-        <v>20</v>
-      </c>
-      <c r="C124">
-        <v>-30</v>
-      </c>
-      <c r="D124">
-        <v>0.20225789242788145</v>
-      </c>
-      <c r="E124">
-        <v>0.9118304524386911</v>
-      </c>
-      <c r="F124">
-        <v>0.99307884029786564</v>
-      </c>
-      <c r="G124">
-        <v>1.2429598157778283</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>129</v>
-      </c>
-      <c r="B125">
-        <v>20</v>
-      </c>
-      <c r="C125">
-        <v>-25</v>
-      </c>
-      <c r="D125">
-        <v>0.23502253020453096</v>
-      </c>
-      <c r="E125">
-        <v>0.73854912534857065</v>
-      </c>
-      <c r="F125">
-        <v>1.1082398410522447</v>
-      </c>
-      <c r="G125">
-        <v>1.0677050395563905</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>130</v>
-      </c>
-      <c r="B126">
-        <v>20</v>
-      </c>
-      <c r="C126">
-        <v>-20</v>
-      </c>
-      <c r="D126">
-        <v>-0.21598379889773617</v>
-      </c>
-      <c r="E126">
-        <v>0.61831397418557466</v>
-      </c>
-      <c r="F126">
-        <v>0.51667792085016262</v>
-      </c>
-      <c r="G126">
-        <v>0.85211614263294977</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>131</v>
-      </c>
-      <c r="B127">
-        <v>20</v>
-      </c>
-      <c r="C127">
-        <v>-15</v>
-      </c>
-      <c r="D127">
-        <v>-3.5647978650722931E-2</v>
-      </c>
-      <c r="E127">
-        <v>0.71132868488224643</v>
-      </c>
-      <c r="F127">
-        <v>0.42890126688219399</v>
-      </c>
-      <c r="G127">
-        <v>1.1477136595430273</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>132</v>
-      </c>
-      <c r="B128">
-        <v>20</v>
-      </c>
-      <c r="C128">
-        <v>-10</v>
-      </c>
-      <c r="D128">
-        <v>0.19536151672704777</v>
-      </c>
-      <c r="E128">
-        <v>0.52928526694284372</v>
-      </c>
-      <c r="F128">
-        <v>0.33634348082147519</v>
-      </c>
-      <c r="G128">
-        <v>0.61220889776021814</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>133</v>
-      </c>
-      <c r="B129">
-        <v>20</v>
-      </c>
-      <c r="C129">
-        <v>-5</v>
-      </c>
-      <c r="D129">
-        <v>-0.37184558388633204</v>
-      </c>
-      <c r="E129">
-        <v>0.60490560295056017</v>
-      </c>
-      <c r="F129">
-        <v>-1.4956783634822641</v>
-      </c>
-      <c r="G129">
-        <v>1.2176108362369031</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>134</v>
-      </c>
-      <c r="D131">
-        <f>SUM(D2:D129)/128</f>
-        <v>-0.10412560310168473</v>
-      </c>
-      <c r="F131">
-        <f t="shared" ref="E131:F131" si="0">SUM(F2:F129)/128</f>
-        <v>-0.60162335000784539</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>135</v>
-      </c>
-      <c r="D132">
-        <f>SQRT(SUMSQ(D2:D129)/COUNTA(D2:D129))</f>
-        <v>0.5476652669525387</v>
-      </c>
-      <c r="F132">
-        <f t="shared" ref="E132:F132" si="1">SQRT(SUMSQ(F2:F129)/COUNTA(F2:F129))</f>
-        <v>1.0280037500657486</v>
+        <f t="shared" ref="F81" si="1">SQRT((SUM(F2:F78)^2)/COUNT(F2:F78))</f>
+        <v>19.179493431397567</v>
       </c>
     </row>
   </sheetData>
